--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Npy-Npy1r.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Npy-Npy1r.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.397098</v>
+        <v>3.022772999999999</v>
       </c>
       <c r="N2">
-        <v>1.191294</v>
+        <v>9.068318999999999</v>
       </c>
       <c r="O2">
-        <v>0.006570984929411806</v>
+        <v>0.04793661133721026</v>
       </c>
       <c r="P2">
-        <v>0.006570984929411806</v>
+        <v>0.04793661133721027</v>
       </c>
       <c r="Q2">
-        <v>0.02364983322</v>
+        <v>0.18002628397</v>
       </c>
       <c r="R2">
-        <v>0.21284849898</v>
+        <v>1.62023655573</v>
       </c>
       <c r="S2">
-        <v>0.006570984929411806</v>
+        <v>0.04793661133721026</v>
       </c>
       <c r="T2">
-        <v>0.006570984929411806</v>
+        <v>0.04793661133721027</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,22 +620,22 @@
         <v>3.175658</v>
       </c>
       <c r="O3">
-        <v>0.01751641564464023</v>
+        <v>0.01678704545857975</v>
       </c>
       <c r="P3">
-        <v>0.01751641564464023</v>
+        <v>0.01678704545857976</v>
       </c>
       <c r="Q3">
         <v>0.06304386831777778</v>
       </c>
       <c r="R3">
-        <v>0.56739481486</v>
+        <v>0.5673948148600001</v>
       </c>
       <c r="S3">
-        <v>0.01751641564464023</v>
+        <v>0.01678704545857975</v>
       </c>
       <c r="T3">
-        <v>0.01751641564464023</v>
+        <v>0.01678704545857976</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>58.97638566666667</v>
+        <v>58.97638566666668</v>
       </c>
       <c r="N4">
         <v>176.929157</v>
       </c>
       <c r="O4">
-        <v>0.975912599425948</v>
+        <v>0.93527634320421</v>
       </c>
       <c r="P4">
-        <v>0.975912599425948</v>
+        <v>0.9352763432042099</v>
       </c>
       <c r="Q4">
-        <v>3.512436942354444</v>
+        <v>3.512436942354445</v>
       </c>
       <c r="R4">
-        <v>31.61193248119</v>
+        <v>31.61193248119001</v>
       </c>
       <c r="S4">
-        <v>0.975912599425948</v>
+        <v>0.93527634320421</v>
       </c>
       <c r="T4">
-        <v>0.975912599425948</v>
+        <v>0.9352763432042099</v>
       </c>
     </row>
   </sheetData>
